--- a/tests_cases/TPO - PE-44.xlsx
+++ b/tests_cases/TPO - PE-44.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Aplicaciones\Proyectos\TestingAplicaciones-MatrixTesters-TPO\tests_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2C9D7-F3B9-4011-B6E7-2E80D195E3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C09C9-1540-444F-90BD-5F907153679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="MT-04" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -96,21 +96,12 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
     <t>Abrir la aplicación</t>
   </si>
   <si>
-    <t>Step Alter #</t>
-  </si>
-  <si>
-    <t>Expected Alternative Results</t>
-  </si>
-  <si>
     <t>Denise Posklinski</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>El usuario intenta cargar productos al carrito sin iniciar sesión</t>
   </si>
   <si>
-    <t>Elegir un último producto y abrirlo</t>
-  </si>
-  <si>
     <t>Desactivar la conexión a internet de la computadora</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>El carrito de compras se encuentra vacío</t>
   </si>
   <si>
-    <t>12.1</t>
-  </si>
-  <si>
     <t>El carrito de compras contiene los 3 productos</t>
   </si>
   <si>
@@ -268,6 +253,21 @@
   </si>
   <si>
     <t>El link del producto se abre</t>
+  </si>
+  <si>
+    <t>Matias Marquez</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Tener activadas las cookies para guardar el usuario</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,9 +681,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -731,6 +728,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1050,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -1094,13 +1097,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -1115,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="3"/>
@@ -1192,14 +1195,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -1208,14 +1211,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -1231,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -1251,7 +1254,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="18" t="s">
@@ -1282,11 +1285,11 @@
         <v>1</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -1296,11 +1299,11 @@
         <v>2</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="29"/>
@@ -1310,11 +1313,11 @@
         <v>3</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
@@ -1324,11 +1327,11 @@
         <v>4</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="29"/>
@@ -1338,11 +1341,11 @@
         <v>5</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="29"/>
@@ -1352,11 +1355,11 @@
         <v>6</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="29"/>
@@ -1366,11 +1369,11 @@
         <v>7</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="29"/>
@@ -1380,11 +1383,11 @@
         <v>8</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="29"/>
@@ -1394,11 +1397,11 @@
         <v>9</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="29"/>
@@ -1447,7 +1450,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -1490,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -1511,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="3"/>
@@ -1588,14 +1591,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -1604,14 +1607,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -1627,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -1647,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="18" t="s">
@@ -1678,11 +1681,11 @@
         <v>1</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -1692,11 +1695,11 @@
         <v>2</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="29"/>
@@ -1706,11 +1709,11 @@
         <v>3</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
@@ -1720,11 +1723,11 @@
         <v>4</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="29"/>
@@ -1734,11 +1737,11 @@
         <v>5</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="29"/>
@@ -1748,11 +1751,11 @@
         <v>6</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="29"/>
@@ -1762,11 +1765,11 @@
         <v>7</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="29"/>
@@ -1811,7 +1814,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -1854,13 +1857,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -1875,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="3"/>
@@ -1904,7 +1907,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1952,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="16">
@@ -1973,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -1993,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="18" t="s">
@@ -2024,11 +2027,11 @@
         <v>1</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -2038,11 +2041,11 @@
         <v>2</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="29"/>
@@ -2052,11 +2055,11 @@
         <v>3</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="29"/>
@@ -2088,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6AD4E9-A2AF-4F2C-832E-0F796F9E5D27}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,32 +2121,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="D1" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2155,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="3"/>
@@ -2184,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2222,24 +2225,24 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="40"/>
     </row>
@@ -2248,151 +2251,141 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>22</v>
+      </c>
       <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="40"/>
     </row>
-    <row r="10" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-    </row>
-    <row r="12" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="B12" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="18" t="s">
+      <c r="B14" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="28" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="28" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="28" t="s">
@@ -2403,160 +2396,121 @@
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="28" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="28" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>11</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>12</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-    </row>
-    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-    </row>
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="35">
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2566,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EC4D8C-F6DD-4C67-82BA-799EE53D8991}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:F22"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -2610,13 +2564,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -2631,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="3"/>
@@ -2660,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2708,14 +2662,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -2724,14 +2678,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -2747,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2767,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="18" t="s">
@@ -2798,11 +2752,11 @@
         <v>1</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -2812,11 +2766,11 @@
         <v>2</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="29"/>
@@ -2826,11 +2780,11 @@
         <v>3</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
@@ -2840,11 +2794,11 @@
         <v>4</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="29"/>
@@ -2854,11 +2808,11 @@
         <v>5</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="29"/>
@@ -2868,11 +2822,11 @@
         <v>6</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="29"/>
@@ -2882,11 +2836,11 @@
         <v>7</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="29"/>
@@ -2896,11 +2850,11 @@
         <v>8</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="29"/>

--- a/tests_cases/TPO - PE-44.xlsx
+++ b/tests_cases/TPO - PE-44.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Aplicaciones\Proyectos\TestingAplicaciones-MatrixTesters-TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C09C9-1540-444F-90BD-5F907153679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BA1D2-DA44-44E1-ADB8-506FFFEF675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="24270" windowHeight="11385" activeTab="4" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="MT-04" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="77">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -120,12 +120,6 @@
     <t>Agregar al carrito de compras</t>
   </si>
   <si>
-    <t>Tocar botón "continuar comprando"</t>
-  </si>
-  <si>
-    <t>Realizar una compra de 2 productos en la app</t>
-  </si>
-  <si>
     <t>Tocar botón "finalizar compra"</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>El producto se agrega al carrito</t>
   </si>
   <si>
-    <t>Se abre la página de checkout</t>
-  </si>
-  <si>
     <t>Se confirma el pago y finaliza la compra</t>
   </si>
   <si>
@@ -168,12 +159,6 @@
     <t>Elegir 1 producto y abrirlo</t>
   </si>
   <si>
-    <t>Elegir otro producto y abrirlo</t>
-  </si>
-  <si>
-    <t>Se vuelve al listado de productos</t>
-  </si>
-  <si>
     <t>Cargar 1 producto en el carrito y cerrar la aplicación</t>
   </si>
   <si>
@@ -204,9 +189,6 @@
     <t xml:space="preserve">Cargar productos al carrito y desactivar internet </t>
   </si>
   <si>
-    <t>El usuario realiza una compra de 2 productos en la aplicación</t>
-  </si>
-  <si>
     <t>El usuario carga 1 producto en el carrito, cierra la aplicación y el carrito se vacía</t>
   </si>
   <si>
@@ -246,9 +228,6 @@
     <t xml:space="preserve">El usuario carga 1 producto al carrito de compras y antes de abonar cierra la aplicación </t>
   </si>
   <si>
-    <t>La página de checkout se abre</t>
-  </si>
-  <si>
     <t>La aplicación se cierra</t>
   </si>
   <si>
@@ -268,6 +247,30 @@
   </si>
   <si>
     <t>Tener activadas las cookies para guardar el usuario</t>
+  </si>
+  <si>
+    <t>Mensaje de éxito</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>El usuario realiza una compra de un producto en la aplicación</t>
+  </si>
+  <si>
+    <t>Realizar una compra de un producto en la app</t>
+  </si>
+  <si>
+    <t>Se abre la página de checkout, se ven los detalles</t>
+  </si>
+  <si>
+    <t>Elegir producto "Zapatillas Verdes"</t>
+  </si>
+  <si>
+    <t>La página de checkout se abre, muestra los detalles</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,6 +621,42 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,50 +675,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -705,28 +735,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="D1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1102,25 +1111,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="20"/>
+      <c r="E3" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1185,10 +1194,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1201,10 +1210,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="26"/>
+      <c r="E8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -1217,10 +1226,10 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="26"/>
+      <c r="E9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1230,207 +1239,166 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
+      <c r="B21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>7</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>8</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>9</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="27">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B13:C13"/>
@@ -1439,6 +1407,25 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1449,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1891FC72-E65D-47E1-A5E8-C6F7D1AC5217}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,16 +1464,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="D1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1498,25 +1485,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1581,10 +1568,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1597,10 +1584,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="26"/>
+      <c r="E8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -1613,10 +1600,10 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="26"/>
+      <c r="E9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1626,162 +1613,166 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
+      <c r="B20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="B19:C19"/>
@@ -1790,19 +1781,15 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1841,16 +1828,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="D1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1862,25 +1849,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="20"/>
+      <c r="E3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1907,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1945,10 +1932,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1961,8 +1948,8 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -1972,105 +1959,105 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
@@ -2078,12 +2065,12 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D14:F14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2093,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6AD4E9-A2AF-4F2C-832E-0F796F9E5D27}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
@@ -2121,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
+      <c r="D1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2142,25 +2129,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="D2" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="25"/>
+      <c r="E3" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="37"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -2187,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2225,10 +2212,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -2241,10 +2228,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="40"/>
+      <c r="E8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2256,17 +2243,17 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="40"/>
+      <c r="E9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2274,208 +2261,190 @@
     </row>
     <row r="11" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>7</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="29"/>
+      <c r="B23" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>8</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="59"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>9</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="59"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>10</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="A26" s="59"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="29">
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D16:F16"/>
@@ -2487,30 +2456,9 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2520,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EC4D8C-F6DD-4C67-82BA-799EE53D8991}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="D1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2569,25 +2517,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="20"/>
+      <c r="E3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -2614,7 +2562,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2652,10 +2600,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -2668,10 +2616,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="26"/>
+      <c r="E8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2684,10 +2632,10 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="26"/>
+      <c r="E9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -2697,179 +2645,176 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
+      <c r="B20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>8</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="29"/>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:F12"/>
     <mergeCell ref="B13:C13"/>
@@ -2884,33 +2829,21 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2bd25917a97534041ca7931abd8cbbac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="173f2ba09421de1668a77200cfb94d82" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -3042,24 +2975,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A42DB-190E-47E2-A19E-CF7C61BA992E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3075,4 +3006,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests_cases/TPO - PE-44.xlsx
+++ b/tests_cases/TPO - PE-44.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Aplicaciones\Proyectos\TestingAplicaciones-MatrixTesters-TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BA1D2-DA44-44E1-ADB8-506FFFEF675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1573E5D9-0033-4B33-80DF-76AC8459C2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="24270" windowHeight="11385" activeTab="4" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24270" windowHeight="11385" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="MT-04" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -156,9 +156,6 @@
     <t xml:space="preserve">Se abre el link del producto </t>
   </si>
   <si>
-    <t>Elegir 1 producto y abrirlo</t>
-  </si>
-  <si>
     <t>Cargar 1 producto en el carrito y cerrar la aplicación</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>MT-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Cargar productos al carrito y desactivar internet </t>
-  </si>
-  <si>
     <t>El usuario carga 1 producto en el carrito, cierra la aplicación y el carrito se vacía</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>El carrito de compras se encuentra vacío</t>
   </si>
   <si>
-    <t>El carrito de compras contiene los 3 productos</t>
-  </si>
-  <si>
     <t>MT-08</t>
   </si>
   <si>
@@ -264,13 +255,25 @@
     <t>Se abre la página de checkout, se ven los detalles</t>
   </si>
   <si>
-    <t>Elegir producto "Zapatillas Verdes"</t>
-  </si>
-  <si>
     <t>La página de checkout se abre, muestra los detalles</t>
   </si>
   <si>
     <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Usuario: prueba@prueba.com</t>
+  </si>
+  <si>
+    <t>Constaseña: user123</t>
+  </si>
+  <si>
+    <t>El carrito de compras contiene el producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargar 1 producto al carrito y desactivar internet </t>
+  </si>
+  <si>
+    <t>Seleccionar producto "T-Shirt 1"</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,71 +624,89 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,39 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1062,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
@@ -1095,11 +1083,11 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="D1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1111,25 +1099,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="32"/>
+      <c r="E3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="20"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1194,10 +1182,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1210,10 +1198,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="23"/>
+      <c r="E8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -1226,10 +1214,10 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="23"/>
+      <c r="E9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1242,37 +1230,37 @@
       <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,122 +1271,131 @@
         <v>16</v>
       </c>
       <c r="C15" s="31"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20" t="s">
+      <c r="B18" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B13:C13"/>
@@ -1407,25 +1404,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1436,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1891FC72-E65D-47E1-A5E8-C6F7D1AC5217}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
@@ -1469,11 +1447,11 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="D1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1485,25 +1463,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1568,10 +1546,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1584,10 +1562,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -1600,10 +1578,10 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1616,37 +1594,37 @@
       <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,130 +1635,112 @@
         <v>16</v>
       </c>
       <c r="C15" s="31"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20" t="s">
+      <c r="B18" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="20" t="s">
+      <c r="B21" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="B18:C18"/>
@@ -1790,6 +1750,24 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1800,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5293FC2A-08B0-43D6-A5D6-898969539AA6}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,11 +1811,11 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="D1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1849,25 +1827,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="32"/>
+      <c r="E3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="20"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1894,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1932,10 +1910,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1948,8 +1926,8 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -1962,37 +1940,37 @@
       <c r="A10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2003,61 +1981,61 @@
         <v>16</v>
       </c>
       <c r="C14" s="31"/>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
@@ -2066,11 +2044,11 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2080,7 +2058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6AD4E9-A2AF-4F2C-832E-0F796F9E5D27}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
@@ -2108,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="D1" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2129,25 +2107,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -2174,7 +2152,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2212,10 +2190,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -2228,10 +2206,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="41"/>
+      <c r="E8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2243,17 +2221,17 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="41"/>
+      <c r="E9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2264,37 +2242,37 @@
       <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="57"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2305,146 +2283,131 @@
         <v>16</v>
       </c>
       <c r="C16" s="31"/>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="20" t="s">
+      <c r="B19" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>7</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
+      <c r="B23" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D16:F16"/>
@@ -2459,6 +2422,21 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2468,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EC4D8C-F6DD-4C67-82BA-799EE53D8991}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,16 +2474,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="D1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2517,25 +2495,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="32"/>
+      <c r="E3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="20"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -2562,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2600,10 +2578,10 @@
       <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -2616,10 +2594,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="23"/>
+      <c r="E8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2632,10 +2610,10 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="23"/>
+      <c r="E9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -2648,37 +2626,37 @@
       <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,132 +2667,133 @@
         <v>16</v>
       </c>
       <c r="C15" s="31"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="B18" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>8</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="B23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:F12"/>
     <mergeCell ref="B13:C13"/>
@@ -2831,19 +2810,33 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2bd25917a97534041ca7931abd8cbbac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="173f2ba09421de1668a77200cfb94d82" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -2975,22 +2968,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A42DB-190E-47E2-A19E-CF7C61BA992E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3006,21 +3001,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>